--- a/upload/summaryPreTestData.xlsx
+++ b/upload/summaryPreTestData.xlsx
@@ -14,107 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="33">
-  <x:si>
-    <x:t>idtestTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>startTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>endTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totalTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>correctTotal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017, 11:34:59 am</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017 11:36:04 am</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pre-2-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pre-35-40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1minutes and 5.641999999999996 seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017, 11:36:31 am</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017 11:36:53 am</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pre-2-8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0minutes and 21 seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017, 1:54:19 pm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017 1:54:43 pm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pre-2-9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 minutes and 23 seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017, 1:57:03 pm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March 30th 2017 1:57:29 pm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pre-2-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post-2-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Students who park at RIT between 9am and 10am</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 minutes and 25 seconds</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,213 +375,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="A8" s="0" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="A9" s="0" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="1" spans="1:0"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
